--- a/Resources/NewFormats.xlsx
+++ b/Resources/NewFormats.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="libxl" lastEdited="7" lowestEdited="7" rupBuild="4.5.1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\TSU_Excel.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED66AF8-005E-4E10-AFEB-C7E2CEBBC252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBD0470-9E9B-4162-8881-43033527D046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8850" yWindow="-21710" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-8850" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewFormats" sheetId="1" r:id="rId1"/>
-    <sheet name="Copied Worksheet_ 161000" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>bold</t>
   </si>
@@ -38,63 +37,49 @@
   </si>
   <si>
     <t>strikeout</t>
+  </si>
+  <si>
+    <t>Arial</t>
+  </si>
+  <si>
+    <t>Times New Roman</t>
+  </si>
+  <si>
+    <t>Courier New</t>
+  </si>
+  <si>
+    <t>Palatino</t>
+  </si>
+  <si>
+    <t>Garamond</t>
+  </si>
+  <si>
+    <t>Verdana</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Comic Sans MS</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Trebuchet MS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <i/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <strike/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -113,56 +98,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,7 +122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -332,7 +273,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -356,9 +297,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -382,7 +323,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -417,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -435,7 +376,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -460,7 +401,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -496,70 +437,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A716003F-7BA7-402F-991C-FD5696B40E43}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E183B0A-F44D-4E1E-A948-39866A2D0681}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.21875" bestFit="true" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
